--- a/public/storage/app/站址信息导入模板.xlsx
+++ b/public/storage/app/站址信息导入模板.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/IronTower/public/storage/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="-6100" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="305"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>产品业务确认单编号</t>
   </si>
@@ -47,9 +47,6 @@
     <t>需求确认单编号</t>
   </si>
   <si>
-    <t>地市</t>
-  </si>
-  <si>
     <t>产品配套类型</t>
   </si>
   <si>
@@ -168,13 +165,278 @@
   </si>
   <si>
     <t>场地费</t>
+  </si>
+  <si>
+    <t>C网基站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L网基站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800M网管编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800M网基站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油机发电类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站址起租标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站址属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁塔站址名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信站址名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动站址名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通站址名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村通站号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8G L网网管编号</t>
+  </si>
+  <si>
+    <t>1.8GL网基站名称</t>
+    <rPh sb="6" eb="7">
+      <t>ji'zhan'm'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站址网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁塔原产权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供电方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站址是否有铁塔政企业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双频天线数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护/电力引入费场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地费场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地费合同起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地费合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBU安装位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRU安装位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有微波设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有WLAN设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站址等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山站标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级防雷SPD状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级防雷SPD状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级防雷SPD状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零地混接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务设备接地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接地线缆/汇流排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防雷接地状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装发电倒换箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零地电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否具备发电条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否包干发电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源柜性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块总容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站址交流负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信直流负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动直流负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通直流负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁塔政企业务直流负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境设备状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信主设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁塔动环状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接上站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需证件上站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼顶管控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可抵达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁塔全景照片（采集/上传）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房全景照片（采集/上传）</t>
+  </si>
+  <si>
+    <t>配套全景照片（采集/上传）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,13 +452,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -211,9 +512,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -271,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -306,7 +617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -491,15 +802,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:DH206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="53" max="53" width="6.5" customWidth="1"/>
+    <col min="63" max="63" width="15.1640625" customWidth="1"/>
+    <col min="64" max="64" width="12.83203125" customWidth="1"/>
+    <col min="75" max="75" width="11" style="7"/>
+    <col min="112" max="113" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:112" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,137 +839,1051 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K2" s="1"/>
+      <c r="N2" s="11"/>
+      <c r="CA2" s="7"/>
+    </row>
+    <row r="3" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K206" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>"鄂州,恩施,黄冈,黄石,仙桃,荆门,荆州,潜江,十堰,随州,天门,武汉,咸宁,襄阳,孝感,宜昌,林区"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"自有机房,租赁机房,一体化机柜,RRU拉远,无机房"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576 X2:X1048576 AR2:AR1048576 BO2:BO1048576 BQ2:BQ1048576 CF2:CF1048576 CJ2:CJ1048576 CL2:CL1048576 CM2:CM1048576 DG2:DG1048576 DH2:DH1048576 DF2:DF1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+      <formula1>"普通地面塔,景观塔,简易塔,普通楼面塔,楼面抱杆"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576 S2:S1048576 U2:U1048576">
+      <formula1>"0.0,0.1,0.2,0.3,0.4,0.6,0.9,1.0,1.1,1.3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R1048576">
+      <formula1>"-,H&lt;20,H&lt;30,20&lt;=H&lt;25,25&lt;=H&lt;30,30&lt;=H&lt;35,35&lt;=H&lt;40,40&lt;=H&lt;45,45&lt;=H&lt;50"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 T2:T1048576 V2:V1048576">
+      <formula1>"-,H&lt;20,H&lt;30,20≤H&lt;25,25≤H&lt;30,30≤H&lt;35,35≤H&lt;40,40≤H&lt;45,45≤H≤50"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+      <formula1>"山区,平原"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576 AE2:AE1048576 AH2:AH1048576 AK2:AK1048576 AN2:AN1048576">
+      <formula1>"0,1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ2:AQ1048576">
+      <formula1>"市区,城镇,农村,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS1048576">
+      <formula1>"锚定用户,其他用户,原产权,既有共享,新增共享,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT2:AT1048576">
+      <formula1>"220V,380V,未知"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"包干,按次"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB1048576">
+      <formula1>"租用站址,自有站址,第三方站址"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC2:BC1048576">
+      <formula1>"存量原产权,存量既有共享,存量自改,存量共享改造,新建铁塔"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM1048576">
+      <formula1>"村通,C村,CDMA,C村L,CL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN1048576">
+      <formula1>"电信,移动,联通,铁塔,广电,第三方"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP1048576">
+      <formula1>"直供电,转供电"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX1048576">
+      <formula1>"机房,塔上"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2:BW1048576">
+      <formula1>"铁塔机房,自有机房,第三方机房"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA1048576">
+      <formula1>"高,标准"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2:CB1048576">
+      <formula1>"高山站,非高山站"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CC2:CC1048576 CD2:CD1048576 CE2:CE1048576">
+      <formula1>"正常,故障,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CG2:CG1048576">
+      <formula1>"正常,未接地"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2:CH1048576">
+      <formula1>"正常,被盗,未接地"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CI2:CI1048576">
+      <formula1>"SPD正常,SPD故障,接地线被盗,设备未接地"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN2:CN1048576">
+      <formula1>"正常,故障,容量不足"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CP2:CP1048576">
+      <formula1>"300AH,500AH,1000AH"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2:CQ1048576">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CR2:CR1048576">
+      <formula1>"秒退,1小时,2小时,3小时,大于3小时"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CX2:CX1048576">
+      <formula1>"空调,风机,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CY2:CY1048576 DA2:DA1048576">
+      <formula1>"正常,故障"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CZ2:CZ1048576">
+      <formula1>"主设备,直放站,传输设备,IPRAN设备"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>